--- a/public/template_mahasiswa.xlsx
+++ b/public/template_mahasiswa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Aplikasi\laragon\www\kompenjti\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E52B04-0C22-4444-908B-8130BF6DB9C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC42BAA-616F-41A2-9C85-1F910096EE23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{54818A27-3A13-4F33-B9E9-1C78F6CDF2D0}"/>
   </bookViews>
@@ -35,9 +35,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>user_id</t>
-  </si>
-  <si>
     <t>periode_id</t>
   </si>
   <si>
@@ -48,6 +45,9 @@
   </si>
   <si>
     <t>jumlah_jam</t>
+  </si>
+  <si>
+    <t>username</t>
   </si>
 </sst>
 </file>
@@ -409,9 +409,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23159750-9026-414E-B834-F59EBB09DC96}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -425,19 +423,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">

--- a/public/template_mahasiswa.xlsx
+++ b/public/template_mahasiswa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Aplikasi\laragon\www\kompenjti\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC42BAA-616F-41A2-9C85-1F910096EE23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB4E613B-8A8B-47B9-A8AC-DF1CD814C0A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{54818A27-3A13-4F33-B9E9-1C78F6CDF2D0}"/>
   </bookViews>
@@ -41,13 +41,13 @@
     <t>akumulasi_jam</t>
   </si>
   <si>
-    <t>matkul_id</t>
-  </si>
-  <si>
     <t>jumlah_jam</t>
   </si>
   <si>
     <t>username</t>
+  </si>
+  <si>
+    <t>matkul_kode</t>
   </si>
 </sst>
 </file>
@@ -409,7 +409,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23159750-9026-414E-B834-F59EBB09DC96}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -423,7 +425,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -432,10 +434,10 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">

--- a/public/template_mahasiswa.xlsx
+++ b/public/template_mahasiswa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Aplikasi\laragon\www\kompenjti\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB4E613B-8A8B-47B9-A8AC-DF1CD814C0A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB60D68-9915-4151-9C26-229FB51DD9E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{54818A27-3A13-4F33-B9E9-1C78F6CDF2D0}"/>
   </bookViews>
@@ -44,10 +44,10 @@
     <t>jumlah_jam</t>
   </si>
   <si>
-    <t>username</t>
+    <t>matkul_kode</t>
   </si>
   <si>
-    <t>matkul_kode</t>
+    <t>NIM</t>
   </si>
 </sst>
 </file>
@@ -409,9 +409,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23159750-9026-414E-B834-F59EBB09DC96}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -425,7 +423,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -434,7 +432,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
